--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,12 +49,12 @@
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
@@ -64,6 +64,9 @@
     <t>however</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
@@ -79,262 +82,238 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>cream</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>popcorn</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>gr</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
-    <t>making</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>brand</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>big</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>bought</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>bought</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>made</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>product</t>
@@ -698,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,10 +685,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -767,13 +746,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -785,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -809,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -817,13 +796,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6666666666666666</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -835,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -859,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -888,16 +867,16 @@
         <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.868421052631579</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>561</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>561</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -909,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -917,37 +896,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4339622641509434</v>
+        <v>0.3875968992248062</v>
       </c>
       <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>79</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K6">
-        <v>0.8260869565217391</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>561</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <v>561</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -959,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -967,13 +946,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4108527131782946</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -985,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.7931034482758621</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1009,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1017,13 +996,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3535353535353535</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1035,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.7608695652173914</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1059,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1088,16 +1067,16 @@
         <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L9">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M9">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1109,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1117,13 +1096,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2435897435897436</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1135,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1159,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1167,13 +1146,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1355932203389831</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1185,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K11">
         <v>0.6883116883116883</v>
@@ -1217,13 +1196,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1027027027027027</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1235,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.6813559322033899</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L12">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1259,21 +1238,45 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.0972972972972973</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>167</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13">
-        <v>0.6617647058823529</v>
+        <v>0.6677966101694915</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1285,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14">
-        <v>0.6444444444444445</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1311,21 +1314,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.6338028169014085</v>
+        <v>0.65625</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,21 +1340,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.6324237560192616</v>
+        <v>0.6380417335473515</v>
       </c>
       <c r="L16">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="M16">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1363,21 +1366,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.6164383561643836</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1389,21 +1392,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.5846153846153846</v>
+        <v>0.6</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1415,21 +1418,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.5714285714285714</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1441,21 +1444,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.5625</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1467,21 +1470,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.5285714285714286</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1493,21 +1496,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.5192307692307693</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L22">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1519,21 +1522,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.5180722891566265</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1545,21 +1548,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.5089820359281437</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="L24">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1571,21 +1574,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>82</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.5087719298245614</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1597,21 +1600,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.5042735042735043</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="L26">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M26">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1623,21 +1626,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1649,21 +1652,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.4901960784313725</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1675,15 +1678,15 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.4754098360655737</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L29">
         <v>29</v>
@@ -1701,21 +1704,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.4605263157894737</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1727,21 +1730,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.4511278195488722</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L31">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M31">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1753,21 +1756,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.45</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1779,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.4397590361445783</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L33">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M33">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1805,21 +1808,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.4166666666666667</v>
+        <v>0.39</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1831,21 +1834,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.4126984126984127</v>
+        <v>0.3696498054474708</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1857,21 +1860,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>37</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.4102564102564102</v>
+        <v>0.3553921568627451</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1883,21 +1886,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.3891050583657588</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L37">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1909,21 +1912,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>157</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.3676470588235294</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L38">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="M38">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1935,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>258</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.3673469387755102</v>
+        <v>0.3219178082191781</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1961,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>31</v>
+        <v>495</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.3538461538461539</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1987,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.3382352941176471</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2013,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.3178082191780822</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L42">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2039,21 +2042,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>498</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.3026315789473684</v>
+        <v>0.2794117647058824</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2065,21 +2068,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.2962962962962963</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2091,21 +2094,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.2932330827067669</v>
+        <v>0.2763157894736842</v>
       </c>
       <c r="L45">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2117,21 +2120,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K46">
-        <v>0.2870813397129187</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L46">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M46">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2143,21 +2146,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.2857142857142857</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2169,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>0.2702702702702703</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2195,21 +2198,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K49">
-        <v>0.2661870503597122</v>
+        <v>0.2465016146393972</v>
       </c>
       <c r="L49">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="M49">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2221,21 +2224,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>102</v>
+        <v>700</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K50">
-        <v>0.2419354838709677</v>
+        <v>0.2446043165467626</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2247,21 +2250,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>47</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K51">
-        <v>0.2380952380952381</v>
+        <v>0.2342342342342342</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2273,21 +2276,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K52">
-        <v>0.2317880794701987</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="L52">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M52">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2299,21 +2302,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K53">
-        <v>0.2303552206673843</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L53">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="M53">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2325,21 +2328,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>715</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K54">
-        <v>0.2277227722772277</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L54">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2351,47 +2354,47 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K55">
-        <v>0.2080536912751678</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="L55">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M55">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>118</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K56">
-        <v>0.1973509933774834</v>
+        <v>0.1912225705329154</v>
       </c>
       <c r="L56">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="M56">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2403,21 +2406,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>606</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K57">
-        <v>0.1880877742946709</v>
+        <v>0.1892583120204604</v>
       </c>
       <c r="L57">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="M57">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2429,21 +2432,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>259</v>
+        <v>634</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K58">
-        <v>0.1801801801801802</v>
+        <v>0.1867549668874172</v>
       </c>
       <c r="L58">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2455,21 +2458,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>91</v>
+        <v>614</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K59">
-        <v>0.1790281329923274</v>
+        <v>0.17</v>
       </c>
       <c r="L59">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2481,21 +2484,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>642</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K60">
-        <v>0.1759259259259259</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="L60">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2507,21 +2510,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K61">
-        <v>0.1739130434782609</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M61">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2533,21 +2536,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>76</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K62">
-        <v>0.1646341463414634</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="L62">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M62">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2559,73 +2562,73 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K63">
-        <v>0.16</v>
+        <v>0.1436314363143631</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>84</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K64">
-        <v>0.1594594594594595</v>
+        <v>0.1365313653136531</v>
       </c>
       <c r="L64">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="M64">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="N64">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>311</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K65">
-        <v>0.1523809523809524</v>
+        <v>0.125</v>
       </c>
       <c r="L65">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M65">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2637,21 +2640,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>89</v>
+        <v>385</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K66">
-        <v>0.1515151515151515</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2663,21 +2666,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>84</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K67">
-        <v>0.1469298245614035</v>
+        <v>0.1140350877192982</v>
       </c>
       <c r="L67">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="M67">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2689,21 +2692,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>389</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K68">
-        <v>0.1376146788990826</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2715,21 +2718,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>94</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K69">
-        <v>0.1355932203389831</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L69">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M69">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2741,47 +2744,47 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>153</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K70">
-        <v>0.1339285714285714</v>
+        <v>0.1037037037037037</v>
       </c>
       <c r="L70">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M70">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N70">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>97</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K71">
-        <v>0.1212121212121212</v>
+        <v>0.1002386634844869</v>
       </c>
       <c r="L71">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="M71">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2793,21 +2796,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>145</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K72">
-        <v>0.1121718377088305</v>
+        <v>0.09975669099756691</v>
       </c>
       <c r="L72">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M72">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2819,21 +2822,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K73">
-        <v>0.1107011070110701</v>
+        <v>0.08866995073891626</v>
       </c>
       <c r="L73">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M73">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2845,47 +2848,47 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>241</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K74">
-        <v>0.1068181818181818</v>
+        <v>0.07460545193687231</v>
       </c>
       <c r="L74">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M74">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>393</v>
+        <v>645</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K75">
-        <v>0.1037037037037037</v>
+        <v>0.06830601092896176</v>
       </c>
       <c r="L75">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M75">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2897,47 +2900,47 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>242</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K76">
-        <v>0.1025641025641026</v>
+        <v>0.06828811973807297</v>
       </c>
       <c r="L76">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="M76">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>140</v>
+        <v>996</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K77">
-        <v>0.1008403361344538</v>
+        <v>0.06048387096774194</v>
       </c>
       <c r="L77">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M77">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2949,99 +2952,99 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K78">
-        <v>0.09202453987730061</v>
+        <v>0.04251386321626617</v>
       </c>
       <c r="L78">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M78">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>148</v>
+        <v>518</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K79">
-        <v>0.08934707903780069</v>
+        <v>0.04246100519930676</v>
       </c>
       <c r="L79">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="M79">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>265</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K80">
-        <v>0.08374384236453201</v>
+        <v>0.04038461538461539</v>
       </c>
       <c r="L80">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M80">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>186</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K81">
-        <v>0.08029197080291971</v>
+        <v>0.03807106598984772</v>
       </c>
       <c r="L81">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M81">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3053,21 +3056,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K82">
-        <v>0.07258064516129033</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="L82">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M82">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3079,241 +3082,33 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>230</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K83">
-        <v>0.07211538461538461</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="L83">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M83">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K84">
-        <v>0.06641721234798878</v>
-      </c>
-      <c r="L84">
-        <v>71</v>
-      </c>
-      <c r="M84">
-        <v>74</v>
-      </c>
-      <c r="N84">
-        <v>0.96</v>
-      </c>
-      <c r="O84">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K85">
-        <v>0.06465517241379311</v>
-      </c>
-      <c r="L85">
-        <v>45</v>
-      </c>
-      <c r="M85">
-        <v>47</v>
-      </c>
-      <c r="N85">
-        <v>0.96</v>
-      </c>
-      <c r="O85">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K86">
-        <v>0.05191256830601093</v>
-      </c>
-      <c r="L86">
-        <v>19</v>
-      </c>
-      <c r="M86">
-        <v>19</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K87">
-        <v>0.04428044280442804</v>
-      </c>
-      <c r="L87">
-        <v>24</v>
-      </c>
-      <c r="M87">
-        <v>24</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K88">
-        <v>0.0412621359223301</v>
-      </c>
-      <c r="L88">
-        <v>17</v>
-      </c>
-      <c r="M88">
-        <v>19</v>
-      </c>
-      <c r="N88">
-        <v>0.89</v>
-      </c>
-      <c r="O88">
-        <v>0.11</v>
-      </c>
-      <c r="P88" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K89">
-        <v>0.0390625</v>
-      </c>
-      <c r="L89">
-        <v>45</v>
-      </c>
-      <c r="M89">
-        <v>50</v>
-      </c>
-      <c r="N89">
-        <v>0.9</v>
-      </c>
-      <c r="O89">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K90">
-        <v>0.03846153846153846</v>
-      </c>
-      <c r="L90">
-        <v>20</v>
-      </c>
-      <c r="M90">
-        <v>22</v>
-      </c>
-      <c r="N90">
-        <v>0.91</v>
-      </c>
-      <c r="O90">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K91">
-        <v>0.01965923984272608</v>
-      </c>
-      <c r="L91">
-        <v>15</v>
-      </c>
-      <c r="M91">
-        <v>19</v>
-      </c>
-      <c r="N91">
-        <v>0.79</v>
-      </c>
-      <c r="O91">
-        <v>0.21</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
